--- a/patterns/Beta/PenelopePencilSkirt/Skirt Calculations.xlsx
+++ b/patterns/Beta/PenelopePencilSkirt/Skirt Calculations.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B$17:$L$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$A$2:$J$20</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>Front</t>
   </si>
@@ -217,6 +222,24 @@
   <si>
     <t>hip</t>
   </si>
+  <si>
+    <t>waist +e</t>
+  </si>
+  <si>
+    <t>hip +e</t>
+  </si>
+  <si>
+    <t>hip - waist</t>
+  </si>
+  <si>
+    <t>dart</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
 </sst>
 </file>
 
@@ -251,8 +274,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2958,7 +2983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -2968,16 +2993,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="R1">
         <v>3</v>
       </c>
@@ -4601,8 +4626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6028,8 +6053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6776,42 +6801,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6821,28 +6847,28 @@
       <c r="C2">
         <v>890</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <f>C2-B2</f>
         <v>250</v>
       </c>
-      <c r="E2">
-        <f>D2/4</f>
+      <c r="G2">
+        <f>F2/4</f>
         <v>62.5</v>
       </c>
-      <c r="F2">
-        <f>IF(D2&gt;200,2,1)</f>
+      <c r="H2">
+        <f>IF(F2&gt;200,2,1)</f>
         <v>2</v>
       </c>
-      <c r="G2">
-        <f>20+(D2-100-((D2-100)/5))/4</f>
+      <c r="K2">
+        <f>20+(F2-100-((F2-100)/5))/4</f>
         <v>50</v>
       </c>
-      <c r="H2">
-        <f>12+((MAX(MIN(D2,300),180)-180)/4)</f>
+      <c r="L2">
+        <f>12+((MAX(MIN(F2,300),180)-180)/4)</f>
         <v>29.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -6852,28 +6878,28 @@
       <c r="C3">
         <v>910</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">C3-B3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="0">C3-B3</f>
         <v>250</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E34" si="1">D3/4</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="1">F3/4</f>
         <v>62.5</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F15" si="2">IF(D3&gt;200,2,1)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H15" si="2">IF(F3&gt;200,2,1)</f>
         <v>2</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G15" si="3">20+(D3-100-((D3-100)/5))/4</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K15" si="3">20+(F3-100-((F3-100)/5))/4</f>
         <v>50</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H15" si="4">12+((MAX(MIN(D3,300),180)-180)/4)</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L15" si="4">12+((MAX(MIN(F3,300),180)-180)/4)</f>
         <v>29.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -6883,28 +6909,28 @@
       <c r="C4">
         <v>940</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <f t="shared" si="4"/>
         <v>29.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -6914,28 +6940,28 @@
       <c r="C5">
         <v>970</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6945,28 +6971,28 @@
       <c r="C6">
         <v>990</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <f t="shared" si="4"/>
         <v>29.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6976,28 +7002,28 @@
       <c r="C7">
         <v>1030</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -7007,28 +7033,28 @@
       <c r="C8">
         <v>1070</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -7038,28 +7064,28 @@
       <c r="C9">
         <v>1120</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -7069,28 +7095,28 @@
       <c r="C10">
         <v>1170</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -7100,28 +7126,28 @@
       <c r="C11">
         <v>1270</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -7131,28 +7157,28 @@
       <c r="C12">
         <v>1320</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -7162,28 +7188,28 @@
       <c r="C13">
         <v>1370</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -7193,28 +7219,28 @@
       <c r="C14">
         <v>1420</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -7224,568 +7250,4154 @@
       <c r="C15">
         <v>1470</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="O15">
+        <v>1.25</v>
+      </c>
+      <c r="P15">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>150</v>
+      </c>
+      <c r="R15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>Sheet3!D27*10</f>
+        <v>810</v>
+      </c>
+      <c r="C18">
+        <f>Sheet3!E27*10</f>
+        <v>940</v>
+      </c>
+      <c r="D18" s="1">
+        <f>ROUND(B18/25.4*4,0)/4</f>
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E35" si="5">ROUND(C18/25.4*4,0)/4</f>
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F36" si="6">C18-B18</f>
+        <v>130</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G37" si="7">F18/4</f>
+        <v>32.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H36" si="8">IF(F18&gt;200,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <f>Y18/4</f>
+        <v>1.28125</v>
+      </c>
+      <c r="J18">
+        <f>IF(Y18/4-U18&lt;$O$15,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K36" si="9">20+(F18-100-((F18-100)/5))/4</f>
+        <v>26</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L36" si="10">12+((MAX(MIN(F18,300),180)-180)/4)</f>
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <f>K18/25.4</f>
+        <v>1.0236220472440944</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N35" si="11">L18/25.4</f>
+        <v>0.47244094488188981</v>
+      </c>
+      <c r="P18">
+        <f>MIN($F18,$R$15)</f>
+        <v>130</v>
+      </c>
+      <c r="Q18">
+        <f>MAX(MIN($F18,$R$15),$Q$15)</f>
+        <v>150</v>
+      </c>
+      <c r="R18">
+        <f>MAX(MIN($F18,$R$15),$Q$15)-$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>((MAX(MIN($F18,$R$15),$Q$15)-$Q$15)/4)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>((MAX(MIN($F18,$R$15),$Q$15)-$Q$15)/4)+$P$15</f>
+        <v>6</v>
+      </c>
+      <c r="U18" s="2">
+        <f>ROUND((T18/25.4*16),0)/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="V18" s="1">
+        <f>IF(F18&lt;5*25.4,0,IF(F18&lt;7*25.4,0.375,IF(F18&lt;9*25.4,0.75,IF(F18&lt;13*25.4,1,1.25))))</f>
+        <v>0.375</v>
+      </c>
+      <c r="W18" s="2">
+        <f>Y18/4-U18-((J18-1)*(0.25))</f>
+        <v>1.03125</v>
+      </c>
+      <c r="X18" s="2">
+        <f>Y18/4-V18</f>
+        <v>0.90625</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>ROUND((F18/25.4*16),0)/16</f>
+        <v>5.125</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>Y18/4-U18</f>
+        <v>1.03125</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19">
         <f>Sheet3!D15*10</f>
         <v>610</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <f>Sheet3!E15*10</f>
         <v>760</v>
       </c>
-      <c r="D17">
-        <f>C17-B17</f>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:D35" si="12">ROUND(B19/25.4*4,0)/4</f>
+        <v>24</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
+      <c r="G19">
+        <f t="shared" si="7"/>
         <v>37.5</v>
       </c>
-      <c r="F17">
-        <f>IF(D17&gt;200,2,1)</f>
+      <c r="H19">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G17">
-        <f>20+(D17-100-((D17-100)/5))/4</f>
+      <c r="I19" s="2">
+        <f t="shared" ref="I19:I35" si="13">Y19/4</f>
+        <v>1.46875</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J36" si="14">IF(Y19/4-U19&lt;$O$15,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="H17">
-        <f>12+((MAX(MIN(D17,300),180)-180)/4)</f>
+      <c r="L19">
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
+      <c r="M19">
+        <f t="shared" ref="M19:M35" si="15">K19/25.4</f>
+        <v>1.1811023622047245</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="11"/>
+        <v>0.47244094488188981</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19:P37" si="16">MIN($F19,$R$15)</f>
+        <v>150</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q37" si="17">MAX(MIN($F19,$R$15),$Q$15)</f>
+        <v>150</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R37" si="18">MAX(MIN($F19,$R$15),$Q$15)-$Q$15</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S37" si="19">((MAX(MIN($F19,$R$15),$Q$15)-$Q$15)/4)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T37" si="20">((MAX(MIN($F19,$R$15),$Q$15)-$Q$15)/4)+$P$15</f>
+        <v>6</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" ref="U19:U36" si="21">ROUND((T19/25.4*16),0)/16</f>
+        <v>0.25</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" ref="V19:V35" si="22">IF(F19&lt;5*25.4,0,IF(F19&lt;7*25.4,0.375,IF(F19&lt;9*25.4,0.75,IF(F19&lt;13*25.4,1,1.25))))</f>
+        <v>0.375</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" ref="W19:W36" si="23">Y19/4-U19-((J19-1)*(0.25))</f>
+        <v>1.21875</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" ref="X19:X35" si="24">Y19/4-V19</f>
+        <v>1.09375</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19:Y35" si="25">ROUND((F19/25.4*16),0)/16</f>
+        <v>5.875</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" ref="Z19:Z36" si="26">Y19/4-U19</f>
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>Sheet3!D29*10</f>
+        <v>760</v>
+      </c>
+      <c r="C20">
+        <f>Sheet3!E29*10</f>
+        <v>910</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>35.75</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>37.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="13"/>
+        <v>1.46875</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="15"/>
+        <v>1.1811023622047245</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="11"/>
+        <v>0.47244094488188981</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="16"/>
+        <v>150</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="22"/>
+        <v>0.375</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="23"/>
+        <v>1.21875</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="24"/>
+        <v>1.09375</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="25"/>
+        <v>5.875</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="26"/>
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>Sheet3!D31*10</f>
+        <v>810</v>
+      </c>
+      <c r="C21">
+        <f>Sheet3!E31*10</f>
+        <v>990</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="13"/>
+        <v>1.765625</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="15"/>
+        <v>1.4173228346456694</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="11"/>
+        <v>0.47244094488188981</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="17"/>
+        <v>180</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="19"/>
+        <v>7.5</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="20"/>
+        <v>13.5</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="21"/>
+        <v>0.5625</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="23"/>
+        <v>1.203125</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="24"/>
+        <v>1.015625</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="25"/>
+        <v>7.0625</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="26"/>
+        <v>1.203125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>Sheet3!D30*10</f>
+        <v>740</v>
+      </c>
+      <c r="C22">
+        <f>Sheet3!E30*10</f>
+        <v>940</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="12"/>
+        <v>29.25</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="13"/>
+        <v>1.96875</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="15"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="11"/>
+        <v>0.6692913385826772</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="17"/>
+        <v>200</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="18"/>
+        <v>50</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="19"/>
+        <v>12.5</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="20"/>
+        <v>18.5</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="23"/>
+        <v>1.21875</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="24"/>
+        <v>1.21875</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="25"/>
+        <v>7.875</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="26"/>
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23">
         <f>Sheet3!D16*10</f>
         <v>650</v>
       </c>
-      <c r="C18">
+      <c r="C23">
         <f>Sheet3!E16*10</f>
         <v>860</v>
       </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D34" si="5">C18-B18</f>
+      <c r="D23" s="1">
+        <f t="shared" si="12"/>
+        <v>25.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="5"/>
+        <v>33.75</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
+      <c r="G23">
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
-      <c r="F18">
-        <f t="shared" ref="F18:F34" si="6">IF(D18&gt;200,2,1)</f>
+      <c r="H23">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18:G34" si="7">20+(D18-100-((D18-100)/5))/4</f>
+      <c r="I23" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0625</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H34" si="8">12+((MAX(MIN(D18,300),180)-180)/4)</f>
+      <c r="L23">
+        <f t="shared" si="10"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="M23">
+        <f t="shared" si="15"/>
+        <v>1.6535433070866143</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="11"/>
+        <v>0.76771653543307095</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="16"/>
+        <v>210</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="17"/>
+        <v>210</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="21"/>
+        <v>0.8125</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="24"/>
+        <v>1.3125</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="25"/>
+        <v>8.25</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24">
         <f>Sheet3!D17*10</f>
         <v>640</v>
       </c>
-      <c r="C19">
+      <c r="C24">
         <f>Sheet3!E17*10</f>
         <v>850</v>
       </c>
-      <c r="D19">
+      <c r="D24" s="1">
+        <f t="shared" si="12"/>
+        <v>25.25</v>
+      </c>
+      <c r="E24" s="1">
         <f t="shared" si="5"/>
+        <v>33.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
+      <c r="G24">
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
-      <c r="F19">
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0625</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="15"/>
+        <v>1.6535433070866143</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="11"/>
+        <v>0.76771653543307095</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="16"/>
+        <v>210</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="17"/>
+        <v>210</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="21"/>
+        <v>0.8125</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="24"/>
+        <v>1.3125</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="25"/>
+        <v>8.25</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>Sheet3!D32*10</f>
+        <v>910</v>
+      </c>
+      <c r="C25">
+        <f>Sheet3!E32*10</f>
+        <v>1120</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="12"/>
+        <v>35.75</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>52.5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="I25" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0625</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>19.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="15"/>
+        <v>1.6535433070866143</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="11"/>
+        <v>0.76771653543307095</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="16"/>
+        <v>210</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="17"/>
+        <v>210</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="21"/>
+        <v>0.8125</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="24"/>
+        <v>1.3125</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="25"/>
+        <v>8.25</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>Sheet3!D22*10</f>
+        <v>640</v>
+      </c>
+      <c r="C26">
+        <f>Sheet3!E22*10</f>
+        <v>860</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="12"/>
+        <v>25.25</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="5"/>
+        <v>33.75</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="H19">
+        <v>55</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="8"/>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="13"/>
+        <v>2.171875</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="15"/>
+        <v>1.7322834645669292</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="11"/>
+        <v>0.86614173228346458</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="19"/>
+        <v>17.5</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="20"/>
+        <v>23.5</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="21"/>
+        <v>0.9375</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="23"/>
+        <v>1.234375</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="24"/>
+        <v>1.421875</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="25"/>
+        <v>8.6875</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="26"/>
+        <v>1.234375</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>Sheet3!D23*10</f>
+        <v>720</v>
+      </c>
+      <c r="C27">
+        <f>Sheet3!E23*10</f>
+        <v>940</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="12"/>
+        <v>28.25</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="13"/>
+        <v>2.171875</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="15"/>
+        <v>1.7322834645669292</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="11"/>
+        <v>0.86614173228346458</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="19"/>
+        <v>17.5</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="20"/>
+        <v>23.5</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="21"/>
+        <v>0.9375</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="23"/>
+        <v>1.234375</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="24"/>
+        <v>1.421875</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="25"/>
+        <v>8.6875</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="26"/>
+        <v>1.234375</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>Sheet3!D25*10</f>
+        <v>710</v>
+      </c>
+      <c r="C28">
+        <f>Sheet3!E25*10</f>
+        <v>930</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="5"/>
+        <v>36.5</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="13"/>
+        <v>2.171875</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="15"/>
+        <v>1.7322834645669292</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="11"/>
+        <v>0.86614173228346458</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="17"/>
+        <v>220</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="19"/>
+        <v>17.5</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="20"/>
+        <v>23.5</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="21"/>
+        <v>0.9375</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="23"/>
+        <v>1.234375</v>
+      </c>
+      <c r="X28" s="2">
+        <f t="shared" si="24"/>
+        <v>1.421875</v>
+      </c>
+      <c r="Y28" s="2">
+        <f t="shared" si="25"/>
+        <v>8.6875</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="26"/>
+        <v>1.234375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29">
         <f>Sheet3!D18*10</f>
         <v>690</v>
       </c>
-      <c r="C20">
+      <c r="C29">
         <f>Sheet3!E18*10</f>
         <v>920</v>
       </c>
-      <c r="D20">
+      <c r="D29" s="1">
+        <f t="shared" si="12"/>
+        <v>27.25</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="5"/>
+        <v>36.25</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="6"/>
         <v>230</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
+      <c r="G29">
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
-      <c r="F20">
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="13"/>
+        <v>2.265625</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>24.5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="15"/>
+        <v>1.8110236220472442</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="11"/>
+        <v>0.96456692913385833</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="17"/>
+        <v>230</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="23"/>
+        <v>1.015625</v>
+      </c>
+      <c r="X29" s="2">
+        <f t="shared" si="24"/>
+        <v>1.265625</v>
+      </c>
+      <c r="Y29" s="2">
+        <f t="shared" si="25"/>
+        <v>9.0625</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="26"/>
+        <v>1.265625</v>
+      </c>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>Sheet3!D21*10</f>
+        <v>660</v>
+      </c>
+      <c r="C30">
+        <f>Sheet3!E21*10</f>
+        <v>890</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>57.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="7"/>
+      <c r="I30" s="2">
+        <f t="shared" si="13"/>
+        <v>2.265625</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="8"/>
+      <c r="L30">
+        <f t="shared" si="10"/>
         <v>24.5</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="M30">
+        <f t="shared" si="15"/>
+        <v>1.8110236220472442</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="11"/>
+        <v>0.96456692913385833</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="16"/>
+        <v>230</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="17"/>
+        <v>230</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="20"/>
+        <v>26</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="23"/>
+        <v>1.015625</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" si="24"/>
+        <v>1.265625</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="25"/>
+        <v>9.0625</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="26"/>
+        <v>1.265625</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31">
         <f>Sheet3!D19*10</f>
         <v>670</v>
       </c>
-      <c r="C21">
+      <c r="C31">
         <f>Sheet3!E19*10</f>
         <v>930</v>
       </c>
-      <c r="D21">
+      <c r="D31" s="1">
+        <f t="shared" si="12"/>
+        <v>26.5</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="5"/>
+        <v>36.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
         <v>260</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
+      <c r="G31">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
-      <c r="F21">
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5625</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="15"/>
+        <v>2.0472440944881889</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="11"/>
+        <v>1.2598425196850394</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="23"/>
+        <v>1.0625</v>
+      </c>
+      <c r="X31" s="2">
+        <f t="shared" si="24"/>
+        <v>1.5625</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" si="25"/>
+        <v>10.25</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>Sheet3!D24*10</f>
+        <v>710</v>
+      </c>
+      <c r="C32">
+        <f>Sheet3!E24*10</f>
+        <v>980</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="5"/>
+        <v>38.5</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>67.5</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="I32" s="2">
+        <f t="shared" si="13"/>
+        <v>2.65625</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="10"/>
+        <v>34.5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="15"/>
+        <v>2.1259842519685042</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>1.3582677165354331</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" si="23"/>
+        <v>1.15625</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" si="24"/>
+        <v>1.65625</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" si="25"/>
+        <v>10.625</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="26"/>
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>Sheet3!D26*10</f>
+        <v>680</v>
+      </c>
+      <c r="C33">
+        <f>Sheet3!E26*10</f>
+        <v>950</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="12"/>
+        <v>26.75</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="5"/>
+        <v>37.5</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="7"/>
-        <v>52</v>
-      </c>
-      <c r="H21">
+        <v>67.5</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="13"/>
+        <v>2.65625</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>34.5</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="15"/>
+        <v>2.1259842519685042</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="11"/>
+        <v>1.3582677165354331</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W33" s="2">
+        <f t="shared" si="23"/>
+        <v>1.15625</v>
+      </c>
+      <c r="X33" s="2">
+        <f t="shared" si="24"/>
+        <v>1.65625</v>
+      </c>
+      <c r="Y33" s="2">
+        <f t="shared" si="25"/>
+        <v>10.625</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="26"/>
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34">
         <f>Sheet3!D20*10</f>
         <v>660</v>
       </c>
-      <c r="C22">
+      <c r="C34">
         <f>Sheet3!E20*10</f>
         <v>970</v>
       </c>
-      <c r="D22">
+      <c r="D34" s="1">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="5"/>
+        <v>38.25</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
-      <c r="E22">
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>77.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="13"/>
+        <v>3.046875</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="15"/>
+        <v>2.4409448818897639</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="11"/>
+        <v>1.6535433070866143</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="23"/>
+        <v>1.546875</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="24"/>
+        <v>2.046875</v>
+      </c>
+      <c r="Y34" s="2">
+        <f t="shared" si="25"/>
+        <v>12.1875</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="26"/>
+        <v>1.796875</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>Sheet3!D28*10</f>
+        <v>760</v>
+      </c>
+      <c r="C35">
+        <f>Sheet3!E28*10</f>
+        <v>1160</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="5"/>
+        <v>45.75</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="13"/>
+        <v>3.9375</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="15"/>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="11"/>
+        <v>1.6535433070866143</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="21"/>
+        <v>1.25</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="22"/>
+        <v>1.25</v>
+      </c>
+      <c r="W35" s="2">
+        <f t="shared" si="23"/>
+        <v>2.4375</v>
+      </c>
+      <c r="X35" s="2">
+        <f t="shared" si="24"/>
+        <v>2.6875</v>
+      </c>
+      <c r="Y35" s="2">
+        <f t="shared" si="25"/>
+        <v>15.75</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="26"/>
+        <v>2.6875</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>46.5*25.4</f>
+        <v>1181.0999999999999</v>
+      </c>
+      <c r="C36">
+        <f>55.5*25.4</f>
+        <v>1409.6999999999998</v>
+      </c>
+      <c r="D36" s="1">
+        <f>ROUND(B36/25.4*4,0)/4</f>
+        <v>46.5</v>
+      </c>
+      <c r="E36" s="1">
+        <f>ROUND(C36/25.4*4,0)/4</f>
+        <v>55.5</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="6"/>
+        <v>228.59999999999991</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>57.149999999999977</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" ref="I36" si="27">Y36/4</f>
+        <v>2.25</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>45.719999999999985</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="10"/>
+        <v>24.149999999999977</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="28">K36/25.4</f>
+        <v>1.7999999999999996</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36" si="29">L36/25.4</f>
+        <v>0.95078740157480235</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="16"/>
+        <v>228.59999999999991</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="17"/>
+        <v>228.59999999999991</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="18"/>
+        <v>78.599999999999909</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="19"/>
+        <v>19.649999999999977</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="20"/>
+        <v>25.649999999999977</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" ref="V36" si="30">IF(F36&lt;5*25.4,0,IF(F36&lt;7*25.4,0.375,IF(F36&lt;9*25.4,0.75,IF(F36&lt;13*25.4,1,1.25))))</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" ref="X36" si="31">Y36/4-V36</f>
+        <v>1.25</v>
+      </c>
+      <c r="Y36" s="2">
+        <f t="shared" ref="Y36" si="32">ROUND((F36/25.4*16),0)/16</f>
+        <v>9</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>719</v>
+      </c>
+      <c r="C37">
+        <v>1012</v>
+      </c>
+      <c r="D37" s="1">
+        <f>ROUND(B37/25.4*4,0)/4</f>
+        <v>28.25</v>
+      </c>
+      <c r="E37" s="1">
+        <f>ROUND(C37/25.4*4,0)/4</f>
+        <v>39.75</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37" si="33">C37-B37</f>
+        <v>293</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>73.25</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37" si="34">IF(F37&gt;200,2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" ref="I37" si="35">Y37/4</f>
+        <v>2.890625</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37" si="36">IF(Y37/4-U37&lt;$O$15,1,2)</f>
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37" si="37">20+(F37-100-((F37-100)/5))/4</f>
+        <v>58.6</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37" si="38">12+((MAX(MIN(F37,300),180)-180)/4)</f>
+        <v>40.25</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37" si="39">K37/25.4</f>
+        <v>2.3070866141732287</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37" si="40">L37/25.4</f>
+        <v>1.5846456692913387</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="16"/>
+        <v>250</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="20"/>
+        <v>31</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" ref="U37" si="41">ROUND((T37/25.4*16),0)/16</f>
+        <v>1.25</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" ref="V37" si="42">IF(F37&lt;5*25.4,0,IF(F37&lt;7*25.4,0.375,IF(F37&lt;9*25.4,0.75,IF(F37&lt;13*25.4,1,1.25))))</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" ref="W37" si="43">Y37/4-U37-((J37-1)*(0.25))</f>
+        <v>1.390625</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" ref="X37" si="44">Y37/4-V37</f>
+        <v>1.890625</v>
+      </c>
+      <c r="Y37" s="2">
+        <f t="shared" ref="Y37" si="45">ROUND((F37/25.4*16),0)/16</f>
+        <v>11.5625</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" ref="Z37" si="46">Y37/4-U37</f>
+        <v>1.640625</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>810</v>
+      </c>
+      <c r="C40">
+        <v>940</v>
+      </c>
+      <c r="D40" s="1">
+        <f>ROUND(B40/25.4*4,0)/4</f>
+        <v>32</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ref="E40:E57" si="47">ROUND(C40/25.4*4,0)/4</f>
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F59" si="48">C40-B40</f>
+        <v>130</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G59" si="49">F40/4</f>
+        <v>32.5</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40:H59" si="50">IF(F40&gt;200,2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <f>Y40/4</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>IF(Y40/4-U40&lt;$O$15,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40:K59" si="51">20+(F40-100-((F40-100)/5))/4</f>
+        <v>26</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L40:L59" si="52">12+((MAX(MIN(F40,300),180)-180)/4)</f>
+        <v>12</v>
+      </c>
+      <c r="N40">
+        <f>(F40-$O$39)</f>
+        <v>30</v>
+      </c>
+      <c r="O40">
+        <f>((F40-$O$39)/$P$39)</f>
+        <v>5</v>
+      </c>
+      <c r="P40">
+        <f>(F40-$O$39-((F40-$O$39)/$P$39))</f>
+        <v>25</v>
+      </c>
+      <c r="Q40">
+        <f>(F40-$O$39-((F40-$O$39)/$P$39))/$Q$39</f>
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <f>$N$39+(F40-$O$39-((F40-$O$39)/$P$39))/$Q$39</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>610</v>
+      </c>
+      <c r="C41">
+        <v>760</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41:D57" si="53">ROUND(B41/25.4*4,0)/4</f>
+        <v>24</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="47"/>
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="48"/>
+        <v>150</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="49"/>
+        <v>37.5</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" ref="I41:I59" si="54">Y41/4</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" ref="J41:J59" si="55">IF(Y41/4-U41&lt;$O$15,1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="51"/>
+        <v>30</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N59" si="56">(F41-$O$39)</f>
+        <v>50</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41:O59" si="57">((F41-$O$39)/$P$39)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ref="P41:P59" si="58">(F41-$O$39-((F41-$O$39)/$P$39))</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41:Q59" si="59">(F41-$O$39-((F41-$O$39)/$P$39))/$Q$39</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41:R59" si="60">$N$39+(F41-$O$39-((F41-$O$39)/$P$39))/$Q$39</f>
+        <v>14.333333333333332</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>760</v>
+      </c>
+      <c r="C42">
+        <v>910</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="53"/>
+        <v>30</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="47"/>
+        <v>35.75</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="48"/>
+        <v>150</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="49"/>
+        <v>37.5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="51"/>
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="56"/>
+        <v>50</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="57"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="58"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="59"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="60"/>
+        <v>14.333333333333332</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>810</v>
+      </c>
+      <c r="C43">
+        <v>990</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="53"/>
+        <v>32</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="47"/>
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="48"/>
+        <v>180</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="49"/>
+        <v>45</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="51"/>
+        <v>36</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="56"/>
+        <v>80</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="57"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="58"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="59"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="60"/>
+        <v>19.333333333333336</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>740</v>
+      </c>
+      <c r="C44">
+        <v>940</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="53"/>
+        <v>29.25</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="47"/>
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="48"/>
+        <v>200</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="49"/>
+        <v>50</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="51"/>
+        <v>40</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="52"/>
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="56"/>
+        <v>100</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="57"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="58"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="59"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="60"/>
+        <v>22.666666666666664</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>650</v>
+      </c>
+      <c r="C45">
+        <v>860</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="53"/>
+        <v>25.5</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="47"/>
+        <v>33.75</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="48"/>
+        <v>210</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="51"/>
+        <v>42</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="52"/>
+        <v>19.5</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="57"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="58"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="59"/>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="60"/>
+        <v>24.333333333333336</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>640</v>
+      </c>
+      <c r="C46">
+        <v>850</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="53"/>
+        <v>25.25</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="47"/>
+        <v>33.5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="48"/>
+        <v>210</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="51"/>
+        <v>42</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="52"/>
+        <v>19.5</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="57"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="58"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="59"/>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="60"/>
+        <v>24.333333333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>910</v>
+      </c>
+      <c r="C47">
+        <v>1120</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="53"/>
+        <v>35.75</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="47"/>
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="48"/>
+        <v>210</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="49"/>
+        <v>52.5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="51"/>
+        <v>42</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="52"/>
+        <v>19.5</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="56"/>
+        <v>110</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="57"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="58"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="59"/>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="60"/>
+        <v>24.333333333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>640</v>
+      </c>
+      <c r="C48">
+        <v>860</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="53"/>
+        <v>25.25</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="47"/>
+        <v>33.75</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="48"/>
+        <v>220</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="49"/>
+        <v>55</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="51"/>
+        <v>44</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="56"/>
+        <v>120</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="60"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>720</v>
+      </c>
+      <c r="C49">
+        <v>940</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="53"/>
+        <v>28.25</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="47"/>
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="48"/>
+        <v>220</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="49"/>
+        <v>55</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="51"/>
+        <v>44</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="56"/>
+        <v>120</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="60"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>710</v>
+      </c>
+      <c r="C50">
+        <v>930</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="53"/>
+        <v>28</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="47"/>
+        <v>36.5</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="48"/>
+        <v>220</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="49"/>
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="51"/>
+        <v>44</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="52"/>
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="56"/>
+        <v>120</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="58"/>
+        <v>100</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="59"/>
+        <v>20</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="60"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>690</v>
+      </c>
+      <c r="C51">
+        <v>920</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="53"/>
+        <v>27.25</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="47"/>
+        <v>36.25</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="48"/>
+        <v>230</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="49"/>
+        <v>57.5</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="51"/>
+        <v>46</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="52"/>
+        <v>24.5</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="56"/>
+        <v>130</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="57"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="58"/>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="59"/>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="60"/>
+        <v>27.666666666666664</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>660</v>
+      </c>
+      <c r="C52">
+        <v>890</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="53"/>
+        <v>26</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="47"/>
+        <v>35</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="48"/>
+        <v>230</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="49"/>
+        <v>57.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="51"/>
+        <v>46</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="52"/>
+        <v>24.5</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="56"/>
+        <v>130</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="57"/>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="58"/>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="59"/>
+        <v>21.666666666666664</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="60"/>
+        <v>27.666666666666664</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>670</v>
+      </c>
+      <c r="C53">
+        <v>930</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="53"/>
+        <v>26.5</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="47"/>
+        <v>36.5</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="48"/>
+        <v>260</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="49"/>
+        <v>65</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="51"/>
+        <v>52</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="52"/>
+        <v>32</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="56"/>
+        <v>160</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="57"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="58"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="59"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="60"/>
+        <v>32.666666666666671</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>710</v>
+      </c>
+      <c r="C54">
+        <v>980</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="53"/>
+        <v>28</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="47"/>
+        <v>38.5</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="48"/>
+        <v>270</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="49"/>
+        <v>67.5</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="51"/>
+        <v>54</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="52"/>
+        <v>34.5</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="56"/>
+        <v>170</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="57"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="58"/>
+        <v>141.66666666666666</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="59"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="60"/>
+        <v>34.333333333333329</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>680</v>
+      </c>
+      <c r="C55">
+        <v>950</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="53"/>
+        <v>26.75</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="47"/>
+        <v>37.5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="48"/>
+        <v>270</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="49"/>
+        <v>67.5</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="51"/>
+        <v>54</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="52"/>
+        <v>34.5</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="56"/>
+        <v>170</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="57"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="58"/>
+        <v>141.66666666666666</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="59"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="60"/>
+        <v>34.333333333333329</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>660</v>
+      </c>
+      <c r="C56">
+        <v>970</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="53"/>
+        <v>26</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="47"/>
+        <v>38.25</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="48"/>
+        <v>310</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="49"/>
+        <v>77.5</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="51"/>
+        <v>62</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="52"/>
+        <v>42</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="56"/>
+        <v>210</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="57"/>
+        <v>35</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="58"/>
+        <v>175</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="59"/>
+        <v>35</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="60"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>760</v>
+      </c>
+      <c r="C57">
+        <v>1160</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="53"/>
+        <v>30</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="47"/>
+        <v>45.75</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="48"/>
+        <v>400</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="49"/>
+        <v>100</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="51"/>
+        <v>80</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="52"/>
+        <v>42</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="56"/>
+        <v>300</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="57"/>
+        <v>50</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="58"/>
+        <v>250</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="59"/>
+        <v>50</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="60"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1181.0999999999999</v>
+      </c>
+      <c r="C58">
+        <v>1409.6999999999998</v>
+      </c>
+      <c r="D58" s="1">
+        <f>ROUND(B58/25.4*4,0)/4</f>
+        <v>46.5</v>
+      </c>
+      <c r="E58" s="1">
+        <f>ROUND(C58/25.4*4,0)/4</f>
+        <v>55.5</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="48"/>
+        <v>228.59999999999991</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="49"/>
+        <v>57.149999999999977</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="51"/>
+        <v>45.719999999999985</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="52"/>
+        <v>24.149999999999977</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="56"/>
+        <v>128.59999999999991</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="57"/>
+        <v>21.433333333333319</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="58"/>
+        <v>107.16666666666659</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="59"/>
+        <v>21.433333333333316</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="60"/>
+        <v>27.433333333333316</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>719</v>
+      </c>
+      <c r="C59">
+        <v>1012</v>
+      </c>
+      <c r="D59" s="1">
+        <f>ROUND(B59/25.4*4,0)/4</f>
+        <v>28.25</v>
+      </c>
+      <c r="E59" s="1">
+        <f>ROUND(C59/25.4*4,0)/4</f>
+        <v>39.75</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="48"/>
+        <v>293</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="49"/>
+        <v>73.25</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="51"/>
+        <v>58.6</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="52"/>
+        <v>40.25</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="56"/>
+        <v>193</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="57"/>
+        <v>32.166666666666664</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="58"/>
+        <v>160.83333333333334</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="59"/>
+        <v>32.166666666666671</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="60"/>
+        <v>38.166666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B17:L35">
+    <sortState ref="B18:L35">
+      <sortCondition ref="F17:F35"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Sheet3!A27</f>
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <f>Sheet3!D27/2.54</f>
+        <v>31.889763779527559</v>
+      </c>
+      <c r="C3">
+        <f>Sheet3!E27/2.54</f>
+        <v>37.00787401574803</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D20" si="0">ROUND(B3*8,0)/8</f>
+        <v>31.875</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E20" si="1">ROUND(C3*8,0)/8</f>
+        <v>37</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F20" si="2">D3+0.5</f>
+        <v>32.375</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G20" si="3">E3+1.5</f>
+        <v>38.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H20" si="4">G3-F3</f>
+        <v>6.125</v>
+      </c>
+      <c r="I3" s="1">
+        <f>IF(H3&lt;5,0,IF(H3&lt;7,0.375,IF(H3&lt;9,0.75,IF(H3&lt;13,1,1.25))))</f>
+        <v>0.375</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J20" si="5">H3/4-I3</f>
+        <v>1.15625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Sheet3!A15</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>Sheet3!D15/2.54</f>
+        <v>24.015748031496063</v>
+      </c>
+      <c r="C4">
+        <f>Sheet3!E15/2.54</f>
+        <v>29.921259842519685</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
-        <v>77.5</v>
-      </c>
-      <c r="F22">
+        <v>29.875</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
+        <v>31.375</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="4"/>
+        <v>6.875</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I20" si="6">IF(H4&lt;5,0,IF(H4&lt;7,0.375,IF(H4&lt;9,0.75,IF(H4&lt;13,1,1.25))))</f>
+        <v>0.375</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="5"/>
+        <v>1.34375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Sheet3!A29</f>
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <f>Sheet3!D29/2.54</f>
+        <v>29.921259842519685</v>
+      </c>
+      <c r="C5">
+        <f>Sheet3!E29/2.54</f>
+        <v>35.826771653543304</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>29.875</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>35.875</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>30.375</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>37.375</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Sheet3!A31</f>
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <f>Sheet3!D31/2.54</f>
+        <v>31.889763779527559</v>
+      </c>
+      <c r="C6">
+        <f>Sheet3!E31/2.54</f>
+        <v>38.976377952755904</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>31.875</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>32.375</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>40.5</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="4"/>
+        <v>8.125</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="5"/>
+        <v>1.28125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Sheet3!A30</f>
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f>Sheet3!D30/2.54</f>
+        <v>29.133858267716533</v>
+      </c>
+      <c r="C7">
+        <f>Sheet3!E30/2.54</f>
+        <v>37.00787401574803</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>29.125</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>29.625</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="4"/>
+        <v>8.875</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>1.46875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Sheet3!A16</f>
         <v>2</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>Sheet3!D21*10</f>
-        <v>660</v>
-      </c>
-      <c r="C23">
-        <f>Sheet3!E21*10</f>
-        <v>890</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="5"/>
-        <v>230</v>
-      </c>
-      <c r="E23">
+      <c r="B8">
+        <f>Sheet3!D16/2.54</f>
+        <v>25.590551181102363</v>
+      </c>
+      <c r="C8">
+        <f>Sheet3!E16/2.54</f>
+        <v>33.85826771653543</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>25.625</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>57.5</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="8"/>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>Sheet3!D22*10</f>
-        <v>640</v>
-      </c>
-      <c r="C24">
-        <f>Sheet3!E22*10</f>
-        <v>860</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <f>Sheet3!D23*10</f>
-        <v>720</v>
-      </c>
-      <c r="C25">
-        <f>Sheet3!E23*10</f>
-        <v>940</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>Sheet3!D24*10</f>
-        <v>710</v>
-      </c>
-      <c r="C26">
-        <f>Sheet3!E24*10</f>
-        <v>980</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="8"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <f>Sheet3!D25*10</f>
-        <v>710</v>
-      </c>
-      <c r="C27">
-        <f>Sheet3!E25*10</f>
-        <v>930</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <f>Sheet3!D26*10</f>
-        <v>680</v>
-      </c>
-      <c r="C28">
-        <f>Sheet3!E26*10</f>
-        <v>950</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
-        <v>270</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="8"/>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>Sheet3!D27*10</f>
-        <v>810</v>
-      </c>
-      <c r="C29">
-        <f>Sheet3!E27*10</f>
-        <v>940</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
-        <v>130</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>32.5</v>
-      </c>
-      <c r="F29">
+        <v>33.875</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>26.125</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>35.375</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f>Sheet3!D28*10</f>
-        <v>760</v>
-      </c>
-      <c r="C30">
-        <f>Sheet3!E28*10</f>
-        <v>1160</v>
-      </c>
-      <c r="D30">
+      <c r="J8" s="2">
         <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-      <c r="E30">
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Sheet3!A17</f>
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>Sheet3!D17/2.54</f>
+        <v>25.196850393700785</v>
+      </c>
+      <c r="C9">
+        <f>Sheet3!E17/2.54</f>
+        <v>33.464566929133859</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>Sheet3!D29*10</f>
-        <v>760</v>
-      </c>
-      <c r="C31">
-        <f>Sheet3!E29*10</f>
-        <v>910</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="F31">
+        <v>33.5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>25.75</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f>Sheet3!D30*10</f>
-        <v>740</v>
-      </c>
-      <c r="C32">
-        <f>Sheet3!E30*10</f>
-        <v>940</v>
-      </c>
-      <c r="D32">
+      <c r="J9" s="2">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="E32">
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Sheet3!A32</f>
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f>Sheet3!D32/2.54</f>
+        <v>35.826771653543304</v>
+      </c>
+      <c r="C10">
+        <f>Sheet3!E32/2.54</f>
+        <v>44.094488188976378</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>35.875</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F32">
+        <v>44.125</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>36.375</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>45.625</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>Sheet3!D31*10</f>
-        <v>810</v>
-      </c>
-      <c r="C33">
-        <f>Sheet3!E31*10</f>
-        <v>990</v>
-      </c>
-      <c r="D33">
+      <c r="J10" s="2">
         <f t="shared" si="5"/>
-        <v>180</v>
-      </c>
-      <c r="E33">
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Sheet3!A22</f>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>Sheet3!D22/2.54</f>
+        <v>25.196850393700785</v>
+      </c>
+      <c r="C11">
+        <f>Sheet3!E22/2.54</f>
+        <v>33.85826771653543</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>25.25</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F33">
+        <v>33.875</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>25.75</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>35.375</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>9.625</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f>Sheet3!D32*10</f>
-        <v>910</v>
-      </c>
-      <c r="C34">
-        <f>Sheet3!E32*10</f>
-        <v>1120</v>
-      </c>
-      <c r="D34">
+      <c r="J11" s="2">
         <f t="shared" si="5"/>
-        <v>210</v>
-      </c>
-      <c r="E34">
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Sheet3!A23</f>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>Sheet3!D23/2.54</f>
+        <v>28.346456692913385</v>
+      </c>
+      <c r="C12">
+        <f>Sheet3!E23/2.54</f>
+        <v>37.00787401574803</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>28.375</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>52.5</v>
-      </c>
-      <c r="F34">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>28.875</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>38.5</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>9.625</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="8"/>
-        <v>19.5</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="5"/>
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Sheet3!A25</f>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>Sheet3!D25/2.54</f>
+        <v>27.952755905511811</v>
+      </c>
+      <c r="C13">
+        <f>Sheet3!E25/2.54</f>
+        <v>36.614173228346459</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>36.625</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>38.125</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>9.625</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="5"/>
+        <v>1.40625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Sheet3!A21</f>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f>Sheet3!D21/2.54</f>
+        <v>25.984251968503937</v>
+      </c>
+      <c r="C14">
+        <f>Sheet3!E21/2.54</f>
+        <v>35.039370078740156</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>36.5</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Sheet3!A18</f>
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <f>Sheet3!D18/2.54</f>
+        <v>27.165354330708659</v>
+      </c>
+      <c r="C15">
+        <f>Sheet3!E18/2.54</f>
+        <v>36.220472440944881</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>27.125</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>36.25</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>27.625</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>37.75</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>10.125</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="5"/>
+        <v>1.53125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Sheet3!A19</f>
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <f>Sheet3!D19/2.54</f>
+        <v>26.377952755905511</v>
+      </c>
+      <c r="C16">
+        <f>Sheet3!E19/2.54</f>
+        <v>36.614173228346459</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>26.375</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>36.625</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>26.875</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>38.125</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Sheet3!A24</f>
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f>Sheet3!D24/2.54</f>
+        <v>27.952755905511811</v>
+      </c>
+      <c r="C17">
+        <f>Sheet3!E24/2.54</f>
+        <v>38.582677165354333</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>38.625</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>40.125</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>11.625</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.90625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>Sheet3!A26</f>
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <f>Sheet3!D26/2.54</f>
+        <v>26.771653543307085</v>
+      </c>
+      <c r="C18">
+        <f>Sheet3!E26/2.54</f>
+        <v>37.401574803149607</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>26.75</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>37.375</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>27.25</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>38.875</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>11.625</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="5"/>
+        <v>1.90625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Sheet3!A20</f>
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <f>Sheet3!D20/2.54</f>
+        <v>25.984251968503937</v>
+      </c>
+      <c r="C19">
+        <f>Sheet3!E20/2.54</f>
+        <v>38.188976377952756</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>38.25</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>26.5</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>39.75</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Sheet3!A28</f>
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f>Sheet3!D28/2.54</f>
+        <v>29.921259842519685</v>
+      </c>
+      <c r="C20">
+        <f>Sheet3!E28/2.54</f>
+        <v>45.669291338582674</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>29.875</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>45.625</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>30.375</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>47.125</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>16.75</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="5"/>
+        <v>2.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>17</v>
+      </c>
+      <c r="F30">
+        <f>D32-D30</f>
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <f>E31-E30</f>
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="H30">
+        <f>(F30/E31)*E30</f>
+        <v>19.101123595505616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>950</v>
+      </c>
+      <c r="E31">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J20">
+    <sortState ref="A3:J20">
+      <sortCondition ref="H2:H20"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>